--- a/TU_05_Silbercoulombmeter/elektrolyse.xlsx
+++ b/TU_05_Silbercoulombmeter/elektrolyse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>TM</t>
   </si>
@@ -141,6 +141,24 @@
   </si>
   <si>
     <t>Delta e Kathode</t>
+  </si>
+  <si>
+    <t>Elektrochemisches Äquivalent Sauerstoff</t>
+  </si>
+  <si>
+    <t>mol sauerstoff</t>
+  </si>
+  <si>
+    <t>mol wasserstoff</t>
+  </si>
+  <si>
+    <t>C(H,F_Anode)</t>
+  </si>
+  <si>
+    <t>C(O,F_Anode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler </t>
   </si>
 </sst>
 </file>
@@ -484,15 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:H45"/>
+  <dimension ref="C8:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
@@ -647,7 +666,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
@@ -667,7 +686,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -686,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
@@ -697,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
@@ -708,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -721,7 +740,7 @@
         <v>6.0221407599999999E+23</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
@@ -732,7 +751,7 @@
         <v>8.3144626181532395</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
@@ -743,8 +762,8 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="25" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
@@ -760,7 +779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
@@ -776,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
@@ -792,7 +811,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
@@ -804,8 +828,12 @@
         <f>E27/E29</f>
         <v>96533.280601248698</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f>15.9994/(2*96485)</f>
+        <v>8.2911333367881022E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
@@ -818,12 +846,12 @@
         <v>91017.741199708515</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>32</v>
       </c>
@@ -836,7 +864,7 @@
         <v>35735.205347786483</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>33</v>
       </c>
@@ -849,7 +877,7 @@
         <v>110453.62134324272</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>35</v>
       </c>
@@ -862,7 +890,7 @@
         <v>1.6029728372082871E-19</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>36</v>
       </c>
@@ -875,7 +903,7 @@
         <v>1.5113851506803457E-19</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>37</v>
       </c>
@@ -888,7 +916,7 @@
         <v>5.9339704553479228E-20</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>38</v>
       </c>
@@ -899,6 +927,109 @@
       <c r="E45" s="6">
         <f>E38/$E$22</f>
         <v>1.8341255335128154E-19</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>15.9994</v>
+      </c>
+      <c r="E55">
+        <v>15.9994</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>1.0074000000000001</v>
+      </c>
+      <c r="E56">
+        <v>1.0074000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59">
+        <f>D55/(2*D33)</f>
+        <v>8.965880555703899E-5</v>
+      </c>
+      <c r="E59">
+        <f>E55/(2*E33)</f>
+        <v>8.2869865710298053E-5</v>
+      </c>
+      <c r="G59">
+        <f>1000*D59</f>
+        <v>8.9658805557038992E-2</v>
+      </c>
+      <c r="H59">
+        <f>1000*E59</f>
+        <v>8.2869865710298057E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60">
+        <f>D56/(1*D33)</f>
+        <v>1.1290708491338561E-5</v>
+      </c>
+      <c r="E60">
+        <f>E56/(1*E33)</f>
+        <v>1.0435779181288581E-5</v>
+      </c>
+      <c r="G60">
+        <f>1000*D60</f>
+        <v>1.1290708491338562E-2</v>
+      </c>
+      <c r="H60">
+        <f>1000*E60</f>
+        <v>1.0435779181288582E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63">
+        <f>D59/D33*D37</f>
+        <v>2.3376597143573207E-5</v>
+      </c>
+      <c r="E63">
+        <f>E59/E33*E37</f>
+        <v>3.0677209454152581E-5</v>
+      </c>
+      <c r="G63">
+        <f>1000*D63</f>
+        <v>2.3376597143573208E-2</v>
+      </c>
+      <c r="H63">
+        <f>1000*E63</f>
+        <v>3.0677209454152581E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f>D60/D33*D37</f>
+        <v>2.9438083881190111E-6</v>
+      </c>
+      <c r="E64">
+        <f>E60/E33*E37</f>
+        <v>3.86317246948177E-6</v>
+      </c>
+      <c r="G64">
+        <f>1000*D64</f>
+        <v>2.9438083881190109E-3</v>
+      </c>
+      <c r="H64">
+        <f>1000*E64</f>
+        <v>3.8631724694817701E-3</v>
       </c>
     </row>
   </sheetData>
